--- a/datas/TestLeafCreateLead.xlsx
+++ b/datas/TestLeafCreateLead.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TestLeaf\wTestLeafSpace\POM\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\309365\Automation\Selenium\Workspace\POM\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5DA5BE-C457-4EFE-AA17-F35DD0FDFCC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21030" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>User Name</t>
   </si>
@@ -66,13 +65,25 @@
     <t>crmsfa</t>
   </si>
   <si>
-    <t>demosalesCSR</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>8489787373</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>vediraj@gmail.com</t>
+  </si>
+  <si>
+    <t>Ronish@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,13 +109,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,11 +411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,60 +424,81 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>